--- a/przepych/Assets/ExternalResources/KartyWykaz.xlsx
+++ b/przepych/Assets/ExternalResources/KartyWykaz.xlsx
@@ -1,127 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piotr\source\repos\Test1\Test1\bin\Debug\net6.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7501F755-97A5-4E24-8F9D-A2C4CB0D9A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{469FE088-B93E-4119-9AB7-C91F52B44481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17355A8B-DAD1-4D22-8E0E-A8DD13E1DD01}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="30">
-  <si>
-    <t>camels</t>
-  </si>
-  <si>
-    <t>elephants</t>
-  </si>
-  <si>
-    <t>people in snow</t>
-  </si>
-  <si>
-    <t>carrack</t>
-  </si>
-  <si>
-    <t>felucca</t>
-  </si>
-  <si>
-    <t>street1</t>
-  </si>
-  <si>
-    <t>street2</t>
-  </si>
-  <si>
-    <t>Venice</t>
-  </si>
-  <si>
-    <t>diamant shop</t>
-  </si>
-  <si>
-    <t>"Gioielleria"</t>
-  </si>
-  <si>
-    <t>bridge</t>
-  </si>
-  <si>
-    <t>equestrian statue</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="5">
   <si>
     <t>BLACK</t>
   </si>
   <si>
-    <t>mine (BLACK)</t>
-  </si>
-  <si>
-    <t>lapidary (BLACK)</t>
+    <t>BLUE</t>
   </si>
   <si>
     <t>WHITE</t>
   </si>
   <si>
-    <t>mine (WHITE)</t>
-  </si>
-  <si>
-    <t>lapidary (WHITE)</t>
-  </si>
-  <si>
-    <t>building (WHITE)</t>
+    <t>GREEN</t>
   </si>
   <si>
     <t>RED</t>
-  </si>
-  <si>
-    <t>mine (RED)</t>
-  </si>
-  <si>
-    <t>lapidary (RED)</t>
-  </si>
-  <si>
-    <t>timbeRED house</t>
-  </si>
-  <si>
-    <t>building (RED)</t>
-  </si>
-  <si>
-    <t>GREEN</t>
-  </si>
-  <si>
-    <t>mine (GREEN)</t>
-  </si>
-  <si>
-    <t>guy (GREEN)</t>
-  </si>
-  <si>
-    <t>BLUE</t>
-  </si>
-  <si>
-    <t>mine (BLUE)</t>
-  </si>
-  <si>
-    <t>lapidary (BLUE)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,9 +120,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -224,7 +160,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -330,7 +266,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -483,26 +419,27 @@
   <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
+      <c r="D1" s="1" t="str">
+        <f>"CardSprites/"&amp;B1&amp;"/"&amp;A1&amp;"_"&amp;LOWER(B1)&amp;"_"&amp;C1&amp;"_"&amp;E1&amp;"w"&amp;F1&amp;"u"&amp;G1&amp;"g"&amp;H1&amp;"r"&amp;I1&amp;"k"</f>
+        <v>CardSprites/BLACK/1_black_0_1w1u1g1r0k</v>
       </c>
       <c r="E1" s="2">
         <v>1</v>
@@ -520,18 +457,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
+      <c r="D2" s="1" t="str">
+        <f t="shared" ref="D2:D65" si="0">"CardSprites/"&amp;B2&amp;"/"&amp;A2&amp;"_"&amp;LOWER(B2)&amp;"_"&amp;C2&amp;"_"&amp;E2&amp;"w"&amp;F2&amp;"u"&amp;G2&amp;"g"&amp;H2&amp;"r"&amp;I2&amp;"k"</f>
+        <v>CardSprites/BLACK/1_black_0_1w2u1g1r0k</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -549,18 +487,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
+      <c r="D3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLACK/1_black_0_2w2u0g1r0k</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -578,18 +517,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLACK/1_black_0_0w0u1g3r1k</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -607,18 +547,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLACK/1_black_0_0w0u2g1r0k</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -636,18 +577,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLACK/1_black_0_2w0u2g0r0k</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -665,18 +607,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLACK/1_black_0_0w0u3g0r0k</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -694,18 +637,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLACK/1_black_1_0w4u0g0r0k</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -723,18 +667,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLUE/1_blue_0_1w0u1g1r1k</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -752,18 +697,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLUE/1_blue_0_1w0u1g2r1k</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -781,18 +727,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLUE/1_blue_0_1w0u2g2r0k</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -810,18 +757,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>28</v>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLUE/1_blue_0_0w1u3g1r0k</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -839,18 +787,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>28</v>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLUE/1_blue_0_1w0u0g0r2k</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -868,18 +817,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>28</v>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLUE/1_blue_0_0w0u2g0r2k</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -897,18 +847,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>28</v>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLUE/1_blue_0_0w0u0g0r3k</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -926,18 +877,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>28</v>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLUE/1_blue_1_0w0u0g4r0k</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -955,18 +907,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>16</v>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/WHITE/1_white_0_0w1u1g1r1k</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -984,18 +937,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>16</v>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/WHITE/1_white_0_0w1u2g1r1k</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -1013,18 +967,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>16</v>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/WHITE/1_white_0_0w2u2g0r1k</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1042,18 +997,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>16</v>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/WHITE/1_white_0_3w1u0g0r1k</v>
       </c>
       <c r="E20" s="2">
         <v>3</v>
@@ -1071,18 +1027,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>16</v>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/WHITE/1_white_0_0w0u0g2r1k</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -1100,18 +1057,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>16</v>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/WHITE/1_white_0_0w2u0g0r2k</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -1129,18 +1087,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>16</v>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/WHITE/1_white_0_0w3u0g0r0k</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1158,18 +1117,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>16</v>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/WHITE/1_white_1_0w0u4g0r0k</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -1187,18 +1147,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>25</v>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/GREEN/1_green_0_1w1u0g1r1k</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -1216,18 +1177,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>25</v>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/GREEN/1_green_0_1w1u0g1r2k</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -1245,18 +1207,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>25</v>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/GREEN/1_green_0_0w1u0g2r2k</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -1274,18 +1237,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>25</v>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/GREEN/1_green_0_1w3u1g0r0k</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -1303,18 +1267,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>25</v>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/GREEN/1_green_0_2w1u0g0r0k</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
@@ -1332,18 +1297,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>25</v>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/GREEN/1_green_0_0w2u0g2r0k</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -1361,18 +1327,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>25</v>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/GREEN/1_green_0_0w0u0g3r0k</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -1390,18 +1357,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>25</v>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/GREEN/1_green_1_0w0u0g0r4k</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -1419,18 +1387,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>20</v>
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/RED/1_red_0_1w1u1g0r1k</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -1448,18 +1417,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>20</v>
+      <c r="D34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/RED/1_red_0_2w1u1g0r1k</v>
       </c>
       <c r="E34" s="2">
         <v>2</v>
@@ -1477,18 +1447,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>20</v>
+      <c r="D35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/RED/1_red_0_2w0u1g0r2k</v>
       </c>
       <c r="E35" s="2">
         <v>2</v>
@@ -1506,18 +1477,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>20</v>
+      <c r="D36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/RED/1_red_0_1w0u0g1r3k</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
@@ -1535,18 +1507,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>20</v>
+      <c r="D37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/RED/1_red_0_0w2u1g0r0k</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -1564,18 +1537,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>20</v>
+      <c r="D38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/RED/1_red_0_2w0u0g2r0k</v>
       </c>
       <c r="E38" s="2">
         <v>2</v>
@@ -1593,18 +1567,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>20</v>
+      <c r="D39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/RED/1_red_0_3w0u0g0r0k</v>
       </c>
       <c r="E39" s="2">
         <v>3</v>
@@ -1622,18 +1597,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>20</v>
+      <c r="D40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/RED/1_red_1_4w0u0g0r0k</v>
       </c>
       <c r="E40" s="2">
         <v>4</v>
@@ -1651,18 +1627,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>0</v>
+      <c r="D41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLACK/2_black_1_3w2u2g0r0k</v>
       </c>
       <c r="E41" s="2">
         <v>3</v>
@@ -1680,18 +1657,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>0</v>
+      <c r="D42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLACK/2_black_1_3w0u3g0r2k</v>
       </c>
       <c r="E42" s="2">
         <v>3</v>
@@ -1709,18 +1687,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1">
         <v>2</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>0</v>
+      <c r="D43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLACK/2_black_2_0w1u4g2r0k</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -1738,18 +1717,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C44" s="1">
         <v>2</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>14</v>
+      <c r="D44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLACK/2_black_2_0w0u5g3r0k</v>
       </c>
       <c r="E44" s="2">
         <v>0</v>
@@ -1767,18 +1747,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C45" s="1">
         <v>2</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>14</v>
+      <c r="D45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLACK/2_black_2_5w0u0g0r0k</v>
       </c>
       <c r="E45" s="2">
         <v>5</v>
@@ -1796,18 +1777,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C46" s="1">
         <v>3</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>14</v>
+      <c r="D46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLACK/2_black_3_0w0u0g0r6k</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>
@@ -1825,18 +1807,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>1</v>
+      <c r="D47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLUE/2_blue_1_0w2u2g3r0k</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
@@ -1854,18 +1837,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>1</v>
+      <c r="D48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLUE/2_blue_1_0w2u3g0r3k</v>
       </c>
       <c r="E48" s="2">
         <v>0</v>
@@ -1883,18 +1867,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1">
         <v>2</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>1</v>
+      <c r="D49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLUE/2_blue_2_5w3u0g0r0k</v>
       </c>
       <c r="E49" s="2">
         <v>5</v>
@@ -1912,18 +1897,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C50" s="1">
         <v>2</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>29</v>
+      <c r="D50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLUE/2_blue_2_2w0u0g1r4k</v>
       </c>
       <c r="E50" s="2">
         <v>2</v>
@@ -1941,18 +1927,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>2</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1">
         <v>2</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>29</v>
+      <c r="D51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLUE/2_blue_2_0w5u0g0r0k</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
@@ -1970,18 +1957,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C52" s="1">
         <v>3</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>29</v>
+      <c r="D52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/BLUE/2_blue_3_0w6u0g0r0k</v>
       </c>
       <c r="E52" s="2">
         <v>0</v>
@@ -1999,18 +1987,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
         <v>2</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>2</v>
+      <c r="D53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/WHITE/2_white_1_0w0u3g2r2k</v>
       </c>
       <c r="E53" s="2">
         <v>0</v>
@@ -2028,18 +2017,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>2</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>2</v>
+      <c r="D54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/WHITE/2_white_1_2w3u0g3r0k</v>
       </c>
       <c r="E54" s="2">
         <v>2</v>
@@ -2057,18 +2047,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="1">
         <v>2</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C55" s="1">
         <v>2</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>2</v>
+      <c r="D55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/WHITE/2_white_2_0w0u1g4r2k</v>
       </c>
       <c r="E55" s="2">
         <v>0</v>
@@ -2086,18 +2077,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
         <v>2</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C56" s="1">
         <v>2</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>17</v>
+      <c r="D56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/WHITE/2_white_2_0w0u0g5r3k</v>
       </c>
       <c r="E56" s="2">
         <v>0</v>
@@ -2115,18 +2107,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="1">
         <v>2</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C57" s="1">
         <v>2</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>17</v>
+      <c r="D57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/WHITE/2_white_2_0w0u0g5r0k</v>
       </c>
       <c r="E57" s="2">
         <v>0</v>
@@ -2144,18 +2137,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="1">
         <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C58" s="1">
         <v>3</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>17</v>
+      <c r="D58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/WHITE/2_white_3_6w0u0g0r0k</v>
       </c>
       <c r="E58" s="2">
         <v>6</v>
@@ -2173,18 +2167,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="1">
         <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>26</v>
+      <c r="D59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/GREEN/2_green_1_3w0u2g3r0k</v>
       </c>
       <c r="E59" s="2">
         <v>3</v>
@@ -2202,18 +2197,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="1">
         <v>2</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>26</v>
+      <c r="D60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/GREEN/2_green_1_2w3u0g0r2k</v>
       </c>
       <c r="E60" s="2">
         <v>2</v>
@@ -2231,18 +2227,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="1">
         <v>2</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1">
         <v>2</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>26</v>
+      <c r="D61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/GREEN/2_green_2_4w2u0g0r1k</v>
       </c>
       <c r="E61" s="2">
         <v>4</v>
@@ -2260,18 +2257,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="1">
         <v>2</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C62" s="1">
         <v>2</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>3</v>
+      <c r="D62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/GREEN/2_green_2_0w5u3g0r0k</v>
       </c>
       <c r="E62" s="2">
         <v>0</v>
@@ -2289,18 +2287,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="1">
         <v>2</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C63" s="1">
         <v>2</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>3</v>
+      <c r="D63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/GREEN/2_green_2_0w0u5g0r0k</v>
       </c>
       <c r="E63" s="2">
         <v>0</v>
@@ -2318,18 +2317,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="1">
         <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C64" s="1">
         <v>3</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>3</v>
+      <c r="D64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/GREEN/2_green_3_0w0u6g0r0k</v>
       </c>
       <c r="E64" s="2">
         <v>0</v>
@@ -2347,18 +2347,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>2</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>4</v>
+      <c r="D65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CardSprites/RED/2_red_1_2w0u0g2r3k</v>
       </c>
       <c r="E65" s="2">
         <v>2</v>
@@ -2376,18 +2377,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>4</v>
+      <c r="D66" s="1" t="str">
+        <f t="shared" ref="D66:D90" si="1">"CardSprites/"&amp;B66&amp;"/"&amp;A66&amp;"_"&amp;LOWER(B66)&amp;"_"&amp;C66&amp;"_"&amp;E66&amp;"w"&amp;F66&amp;"u"&amp;G66&amp;"g"&amp;H66&amp;"r"&amp;I66&amp;"k"</f>
+        <v>CardSprites/RED/2_red_1_0w3u0g2r3k</v>
       </c>
       <c r="E66" s="2">
         <v>0</v>
@@ -2405,18 +2407,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="1">
         <v>2</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C67" s="1">
         <v>2</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>4</v>
+      <c r="D67" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CardSprites/RED/2_red_2_1w4u2g0r0k</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
@@ -2434,18 +2437,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="1">
         <v>2</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C68" s="1">
         <v>2</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>21</v>
+      <c r="D68" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CardSprites/RED/2_red_2_3w0u0g0r5k</v>
       </c>
       <c r="E68" s="2">
         <v>3</v>
@@ -2463,18 +2467,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="1">
         <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C69" s="1">
         <v>2</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>21</v>
+      <c r="D69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CardSprites/RED/2_red_2_0w0u0g0r5k</v>
       </c>
       <c r="E69" s="2">
         <v>0</v>
@@ -2492,18 +2497,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="1">
         <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C70" s="1">
         <v>3</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>21</v>
+      <c r="D70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CardSprites/RED/2_red_3_0w0u0g6r0k</v>
       </c>
       <c r="E70" s="2">
         <v>0</v>
@@ -2521,18 +2527,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="1">
         <v>3</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C71" s="1">
         <v>3</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>5</v>
+      <c r="D71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CardSprites/BLACK/3_black_3_3w3u5g3r0k</v>
       </c>
       <c r="E71" s="2">
         <v>3</v>
@@ -2550,18 +2557,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="1">
         <v>3</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C72" s="1">
         <v>4</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>6</v>
+      <c r="D72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CardSprites/BLACK/3_black_4_0w0u0g7r0k</v>
       </c>
       <c r="E72" s="2">
         <v>0</v>
@@ -2579,18 +2587,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="1">
         <v>3</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C73" s="1">
         <v>4</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>6</v>
+      <c r="D73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CardSprites/BLACK/3_black_4_0w0u3g6r3k</v>
       </c>
       <c r="E73" s="2">
         <v>0</v>
@@ -2608,18 +2617,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="1">
         <v>3</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C74" s="1">
         <v>5</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>5</v>
+      <c r="D74" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CardSprites/BLACK/3_black_5_0w0u0g7r3k</v>
       </c>
       <c r="E74" s="2">
         <v>0</v>
@@ -2637,18 +2647,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="1">
         <v>3</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C75" s="1">
         <v>3</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>7</v>
+      <c r="D75" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CardSprites/BLUE/3_blue_3_3w0u3g3r5k</v>
       </c>
       <c r="E75" s="2">
         <v>3</v>
@@ -2666,18 +2677,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="1">
         <v>3</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C76" s="1">
         <v>4</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>7</v>
+      <c r="D76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CardSprites/BLUE/3_blue_4_7w0u0g0r0k</v>
       </c>
       <c r="E76" s="2">
         <v>7</v>
@@ -2695,18 +2707,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="1">
         <v>3</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C77" s="1">
         <v>4</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>8</v>
+      <c r="D77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CardSprites/BLUE/3_blue_4_6w3u0g0r3k</v>
       </c>
       <c r="E77" s="2">
         <v>6</v>
@@ -2724,18 +2737,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="1">
         <v>3</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C78" s="1">
         <v>5</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>8</v>
+      <c r="D78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CardSprites/BLUE/3_blue_5_7w3u0g0r0k</v>
       </c>
       <c r="E78" s="2">
         <v>7</v>
@@ -2753,18 +2767,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="1">
         <v>3</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C79" s="1">
         <v>3</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>18</v>
+      <c r="D79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CardSprites/WHITE/3_white_3_0w3u3g5r3k</v>
       </c>
       <c r="E79" s="2">
         <v>0</v>
@@ -2782,18 +2797,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="1">
         <v>3</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C80" s="1">
         <v>4</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>9</v>
+      <c r="D80" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CardSprites/WHITE/3_white_4_0w0u0g0r7k</v>
       </c>
       <c r="E80" s="2">
         <v>0</v>
@@ -2811,18 +2827,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="1">
         <v>3</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C81" s="1">
         <v>4</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>9</v>
+      <c r="D81" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CardSprites/WHITE/3_white_4_3w0u0g3r6k</v>
       </c>
       <c r="E81" s="2">
         <v>3</v>
@@ -2840,18 +2857,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="1">
         <v>3</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C82" s="1">
         <v>5</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>18</v>
+      <c r="D82" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CardSprites/WHITE/3_white_5_3w0u0g0r7k</v>
       </c>
       <c r="E82" s="2">
         <v>3</v>
@@ -2869,18 +2887,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="1">
         <v>3</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C83" s="1">
         <v>3</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>22</v>
+      <c r="D83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CardSprites/GREEN/3_green_3_5w3u0g3r3k</v>
       </c>
       <c r="E83" s="2">
         <v>5</v>
@@ -2898,18 +2917,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="1">
         <v>3</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1">
         <v>4</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>10</v>
+      <c r="D84" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CardSprites/GREEN/3_green_4_0w7u0g0r0k</v>
       </c>
       <c r="E84" s="2">
         <v>0</v>
@@ -2927,18 +2947,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="1">
         <v>3</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C85" s="1">
         <v>4</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>10</v>
+      <c r="D85" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CardSprites/GREEN/3_green_4_3w6u3g0r0k</v>
       </c>
       <c r="E85" s="2">
         <v>3</v>
@@ -2956,18 +2977,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="1">
         <v>3</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C86" s="1">
         <v>5</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>22</v>
+      <c r="D86" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CardSprites/GREEN/3_green_5_0w7u3g0r0k</v>
       </c>
       <c r="E86" s="2">
         <v>0</v>
@@ -2985,18 +3007,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="1">
         <v>3</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C87" s="1">
         <v>3</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>11</v>
+      <c r="D87" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CardSprites/RED/3_red_3_3w5u3g0r3k</v>
       </c>
       <c r="E87" s="2">
         <v>3</v>
@@ -3014,18 +3037,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="1">
         <v>3</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C88" s="1">
         <v>4</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>11</v>
+      <c r="D88" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CardSprites/RED/3_red_4_0w0u7g0r0k</v>
       </c>
       <c r="E88" s="2">
         <v>0</v>
@@ -3043,18 +3067,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="1">
         <v>3</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C89" s="1">
         <v>4</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>23</v>
+      <c r="D89" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CardSprites/RED/3_red_4_0w3u6g3r0k</v>
       </c>
       <c r="E89" s="2">
         <v>0</v>
@@ -3072,18 +3097,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="1">
         <v>3</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C90" s="1">
         <v>5</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>23</v>
+      <c r="D90" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CardSprites/RED/3_red_5_0w0u7g3r0k</v>
       </c>
       <c r="E90" s="2">
         <v>0</v>
